--- a/6_3_year_discovery/3_year_discovery_091924.xlsx
+++ b/6_3_year_discovery/3_year_discovery_091924.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calla\Google Drive\Resume &amp; Stuff\USAT\data_gathering\sql_code\6_3_year_discovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E3B63B-94A9-4936-BD4F-47057BCBED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61504D03-F818-4A72-9DB7-572D6A0D1B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31935" yWindow="555" windowWidth="22125" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="102">
   <si>
     <t>sales decline</t>
   </si>
@@ -315,17 +315,44 @@
     <t>lifetime behavior</t>
   </si>
   <si>
-    <t xml:space="preserve">Member does not have a </t>
-  </si>
-  <si>
-    <t>future end date?</t>
+    <t>by end date &gt; 2024</t>
+  </si>
+  <si>
+    <t>race participation</t>
+  </si>
+  <si>
+    <t>lifeftime</t>
+  </si>
+  <si>
+    <t>renewal behavior</t>
+  </si>
+  <si>
+    <t>unique member stats</t>
+  </si>
+  <si>
+    <t>setup time with sam</t>
+  </si>
+  <si>
+    <t>Only 2024</t>
+  </si>
+  <si>
+    <t>Only 2023 &amp; 2024</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t># sales_units</t>
+  </si>
+  <si>
+    <t>sales_revenue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +379,15 @@
       <b/>
       <sz val="15"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -529,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -564,6 +600,39 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,50 +654,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -913,11 +940,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,18 +961,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19">
+      <c r="B3" s="12">
         <v>2024</v>
       </c>
     </row>
@@ -1006,11 +1033,11 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="D15" s="25" t="s">
+      <c r="B15" s="26"/>
+      <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -1018,11 +1045,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="23">
         <v>4540</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="D16" s="26" t="s">
+      <c r="B16" s="24"/>
+      <c r="D16" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="7">
@@ -1037,7 +1064,7 @@
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1052,7 +1079,7 @@
       <c r="B18" s="8">
         <v>3520</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1068,14 +1095,12 @@
         <f>B18/$A$16</f>
         <v>0.77533039647577096</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="19" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="29"/>
-    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>16</v>
@@ -1083,7 +1108,7 @@
       <c r="B21" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="6">
@@ -1097,7 +1122,7 @@
       <c r="B22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="8">
@@ -1111,12 +1136,10 @@
       <c r="B23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="21"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="29"/>
-    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>15</v>
@@ -1124,7 +1147,7 @@
       <c r="B25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="20" t="s">
         <v>88</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -1135,13 +1158,13 @@
       <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="8">
@@ -1153,18 +1176,16 @@
       <c r="A27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="32"/>
+      <c r="D27" s="21"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="29"/>
-    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>72</v>
@@ -1172,7 +1193,7 @@
       <c r="B29" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -1186,7 +1207,7 @@
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="8">
@@ -1201,12 +1222,10 @@
       <c r="B31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="21"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="29"/>
-    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>11</v>
@@ -1214,7 +1233,7 @@
       <c r="B33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="6" t="s">
@@ -1225,10 +1244,10 @@
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -1240,20 +1259,31 @@
       <c r="B35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="31"/>
+      <c r="D35" s="3"/>
       <c r="F35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>91</v>
       </c>
@@ -1262,11 +1292,19 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1281,13 +1319,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAEDA6B-2734-46D9-AD94-F8472DA951DA}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="J3:M3"/>
+      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,288 +1337,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>117</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>92</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>105</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1">
         <v>151</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F3" s="1">
         <v>129</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G3" s="1">
         <v>496</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H3" s="1">
         <v>528</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I3" s="1">
         <v>427</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J3" s="1">
         <v>367</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K3" s="1">
         <v>400</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L3" s="1">
         <v>569</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M3" s="1">
         <v>1160</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N3" s="11">
         <v>4540</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O3" s="11">
         <v>89872</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>65</v>
-      </c>
-      <c r="C3" s="1">
-        <v>55</v>
-      </c>
-      <c r="D3" s="1">
-        <v>68</v>
-      </c>
-      <c r="E3" s="1">
-        <v>83</v>
-      </c>
-      <c r="F3" s="1">
-        <v>78</v>
-      </c>
-      <c r="G3" s="1">
-        <v>335</v>
-      </c>
-      <c r="H3" s="1">
-        <v>355</v>
-      </c>
-      <c r="I3" s="1">
-        <v>303</v>
-      </c>
-      <c r="J3" s="1">
-        <v>273</v>
-      </c>
-      <c r="K3" s="1">
-        <v>343</v>
-      </c>
-      <c r="L3" s="1">
-        <v>504</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1059</v>
-      </c>
-      <c r="N3" s="11">
-        <v>3520</v>
-      </c>
-      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F4" s="1">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1">
-        <v>151</v>
+        <v>335</v>
       </c>
       <c r="H4" s="1">
-        <v>158</v>
+        <v>355</v>
       </c>
       <c r="I4" s="1">
-        <v>117</v>
+        <v>303</v>
       </c>
       <c r="J4" s="1">
-        <v>87</v>
+        <v>273</v>
       </c>
       <c r="K4" s="1">
-        <v>55</v>
+        <v>343</v>
       </c>
       <c r="L4" s="1">
-        <v>62</v>
+        <v>504</v>
       </c>
       <c r="M4" s="1">
-        <v>95</v>
-      </c>
-      <c r="N4" s="1">
-        <v>939</v>
-      </c>
-      <c r="O4" s="11">
-        <v>75381</v>
-      </c>
+        <v>1059</v>
+      </c>
+      <c r="N4" s="11">
+        <v>3520</v>
+      </c>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="G5" s="1">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="H5" s="1">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I5" s="1">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="J5" s="1">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="K5" s="1">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="L5" s="1">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="M5" s="1">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="N5" s="1">
-        <v>70</v>
+        <v>939</v>
       </c>
       <c r="O5" s="11">
-        <v>12888</v>
+        <v>75381</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="L6" s="1">
         <v>3</v>
       </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
       <c r="M6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N6" s="1">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="O6" s="11">
-        <v>1083</v>
+        <v>12888</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1589,22 +1585,22 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -1613,175 +1609,889 @@
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>445</v>
+        <v>9</v>
+      </c>
+      <c r="O7" s="11">
+        <v>1083</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="20">
-        <f t="shared" ref="B10:G10" si="0">B3/B2</f>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <f>SUM(B4:B9)</f>
+        <v>117</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ref="C11:O11" si="0">SUM(C4:C9)</f>
+        <v>92</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>496</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>528</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>427</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>569</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="0"/>
+        <v>1160</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="0"/>
+        <v>4540</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="0"/>
+        <v>89872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>0</v>
+      </c>
+      <c r="B12" s="13">
+        <f t="shared" ref="B12:G12" si="1">B4/B3</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="C10" s="20">
-        <f t="shared" si="0"/>
+      <c r="C12" s="13">
+        <f t="shared" si="1"/>
         <v>0.59782608695652173</v>
       </c>
-      <c r="D10" s="20">
-        <f t="shared" si="0"/>
+      <c r="D12" s="13">
+        <f t="shared" si="1"/>
         <v>0.64761904761904765</v>
       </c>
-      <c r="E10" s="20">
-        <f t="shared" si="0"/>
+      <c r="E12" s="13">
+        <f t="shared" si="1"/>
         <v>0.54966887417218546</v>
       </c>
-      <c r="F10" s="20">
-        <f t="shared" si="0"/>
+      <c r="F12" s="13">
+        <f t="shared" si="1"/>
         <v>0.60465116279069764</v>
       </c>
-      <c r="G10" s="20">
-        <f t="shared" si="0"/>
+      <c r="G12" s="13">
+        <f t="shared" si="1"/>
         <v>0.67540322580645162</v>
       </c>
-      <c r="H10" s="20">
-        <f>H3/H2</f>
+      <c r="H12" s="13">
+        <f>H4/H3</f>
         <v>0.67234848484848486</v>
       </c>
-      <c r="I10" s="20">
-        <f t="shared" ref="I10:O10" si="1">I3/I2</f>
+      <c r="I12" s="13">
+        <f t="shared" ref="I12:O12" si="2">I4/I3</f>
         <v>0.70960187353629978</v>
       </c>
-      <c r="J10" s="20">
-        <f t="shared" si="1"/>
+      <c r="J12" s="13">
+        <f t="shared" si="2"/>
         <v>0.7438692098092643</v>
       </c>
-      <c r="K10" s="20">
-        <f t="shared" si="1"/>
+      <c r="K12" s="13">
+        <f t="shared" si="2"/>
         <v>0.85750000000000004</v>
       </c>
-      <c r="L10" s="20">
-        <f t="shared" si="1"/>
+      <c r="L12" s="13">
+        <f t="shared" si="2"/>
         <v>0.88576449912126543</v>
       </c>
-      <c r="M10" s="20">
-        <f t="shared" si="1"/>
+      <c r="M12" s="13">
+        <f t="shared" si="2"/>
         <v>0.91293103448275859</v>
       </c>
-      <c r="N10" s="20">
-        <f t="shared" si="1"/>
+      <c r="N12" s="13">
+        <f t="shared" si="2"/>
         <v>0.77533039647577096</v>
       </c>
-      <c r="O10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="21">
-        <f>1-B10</f>
+      <c r="O12" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="14">
+        <f>1-B12</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="C11" s="21">
-        <f t="shared" ref="C11:O11" si="2">1-C10</f>
+      <c r="C13" s="14">
+        <f t="shared" ref="C13:O13" si="3">1-C12</f>
         <v>0.40217391304347827</v>
       </c>
-      <c r="D11" s="21">
-        <f t="shared" si="2"/>
+      <c r="D13" s="14">
+        <f t="shared" si="3"/>
         <v>0.35238095238095235</v>
       </c>
-      <c r="E11" s="21">
-        <f t="shared" si="2"/>
+      <c r="E13" s="14">
+        <f t="shared" si="3"/>
         <v>0.45033112582781454</v>
       </c>
-      <c r="F11" s="21">
-        <f t="shared" si="2"/>
+      <c r="F13" s="14">
+        <f t="shared" si="3"/>
         <v>0.39534883720930236</v>
       </c>
-      <c r="G11" s="21">
-        <f t="shared" si="2"/>
+      <c r="G13" s="14">
+        <f t="shared" si="3"/>
         <v>0.32459677419354838</v>
       </c>
-      <c r="H11" s="21">
-        <f t="shared" si="2"/>
+      <c r="H13" s="14">
+        <f t="shared" si="3"/>
         <v>0.32765151515151514</v>
       </c>
-      <c r="I11" s="21">
-        <f t="shared" si="2"/>
+      <c r="I13" s="14">
+        <f t="shared" si="3"/>
         <v>0.29039812646370022</v>
       </c>
-      <c r="J11" s="21">
-        <f t="shared" si="2"/>
+      <c r="J13" s="14">
+        <f t="shared" si="3"/>
         <v>0.2561307901907357</v>
       </c>
-      <c r="K11" s="21">
-        <f t="shared" si="2"/>
+      <c r="K13" s="14">
+        <f t="shared" si="3"/>
         <v>0.14249999999999996</v>
       </c>
-      <c r="L11" s="21">
-        <f t="shared" si="2"/>
+      <c r="L13" s="14">
+        <f t="shared" si="3"/>
         <v>0.11423550087873457</v>
       </c>
-      <c r="M11" s="21">
-        <f t="shared" si="2"/>
+      <c r="M13" s="14">
+        <f t="shared" si="3"/>
         <v>8.7068965517241415E-2</v>
       </c>
-      <c r="N11" s="21">
-        <f t="shared" si="2"/>
+      <c r="N13" s="14">
+        <f t="shared" si="3"/>
         <v>0.22466960352422904</v>
       </c>
-      <c r="O11" s="21">
-        <f t="shared" si="2"/>
+      <c r="O13" s="14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>117</v>
+      </c>
+      <c r="C17" s="1">
+        <v>92</v>
+      </c>
+      <c r="D17" s="1">
+        <v>105</v>
+      </c>
+      <c r="E17" s="1">
+        <v>151</v>
+      </c>
+      <c r="F17" s="1">
+        <v>129</v>
+      </c>
+      <c r="G17" s="1">
+        <v>496</v>
+      </c>
+      <c r="H17" s="1">
+        <v>528</v>
+      </c>
+      <c r="I17" s="1">
+        <v>427</v>
+      </c>
+      <c r="J17" s="1">
+        <v>367</v>
+      </c>
+      <c r="K17" s="1">
+        <v>400</v>
+      </c>
+      <c r="L17" s="1">
+        <v>569</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1160</v>
+      </c>
+      <c r="N17" s="11">
+        <v>4540</v>
+      </c>
+      <c r="O17" s="11">
+        <v>129294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1">
+        <v>60</v>
+      </c>
+      <c r="F18" s="1">
+        <v>60</v>
+      </c>
+      <c r="G18" s="1">
+        <v>280</v>
+      </c>
+      <c r="H18" s="1">
+        <v>298</v>
+      </c>
+      <c r="I18" s="1">
+        <v>260</v>
+      </c>
+      <c r="J18" s="1">
+        <v>243</v>
+      </c>
+      <c r="K18" s="1">
+        <v>313</v>
+      </c>
+      <c r="L18" s="1">
+        <v>489</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1032</v>
+      </c>
+      <c r="N18" s="11">
+        <v>3169</v>
+      </c>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1">
+        <v>74</v>
+      </c>
+      <c r="F19" s="1">
+        <v>61</v>
+      </c>
+      <c r="G19" s="1">
+        <v>189</v>
+      </c>
+      <c r="H19" s="1">
+        <v>194</v>
+      </c>
+      <c r="I19" s="1">
+        <v>149</v>
+      </c>
+      <c r="J19" s="1">
+        <v>110</v>
+      </c>
+      <c r="K19" s="1">
+        <v>80</v>
+      </c>
+      <c r="L19" s="1">
+        <v>72</v>
+      </c>
+      <c r="M19" s="1">
+        <v>113</v>
+      </c>
+      <c r="N19" s="11">
+        <v>1185</v>
+      </c>
+      <c r="O19" s="11">
+        <v>99045</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1">
+        <v>27</v>
+      </c>
+      <c r="I20" s="1">
+        <v>13</v>
+      </c>
+      <c r="J20" s="1">
+        <v>13</v>
+      </c>
+      <c r="K20" s="1">
+        <v>5</v>
+      </c>
+      <c r="L20" s="1">
+        <v>5</v>
+      </c>
+      <c r="M20" s="1">
+        <v>12</v>
+      </c>
+      <c r="N20" s="1">
+        <v>144</v>
+      </c>
+      <c r="O20" s="11">
+        <v>21924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1">
+        <v>8</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>31</v>
+      </c>
+      <c r="O21" s="11">
+        <v>6049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1">
+        <v>8</v>
+      </c>
+      <c r="O22" s="11">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2</v>
+      </c>
+      <c r="O23" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <f>SUM(B18:B23)</f>
+        <v>117</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" ref="C26:O26" si="4">SUM(C18:C23)</f>
+        <v>92</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="4"/>
+        <v>496</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="4"/>
+        <v>528</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="4"/>
+        <v>426</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="4"/>
+        <v>367</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="4"/>
+        <v>569</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="4"/>
+        <v>1160</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="4"/>
+        <v>4539</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="4"/>
+        <v>129084</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>0</v>
+      </c>
+      <c r="B27" s="13">
+        <f t="shared" ref="B27:G27" si="5">B18/B17</f>
+        <v>0.37606837606837606</v>
+      </c>
+      <c r="C27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.41304347826086957</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.50476190476190474</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.39735099337748342</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46511627906976744</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.56451612903225812</v>
+      </c>
+      <c r="H27" s="13">
+        <f>H18/H17</f>
+        <v>0.56439393939393945</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" ref="I27:O27" si="6">I18/I17</f>
+        <v>0.6088992974238876</v>
+      </c>
+      <c r="J27" s="13">
+        <f t="shared" si="6"/>
+        <v>0.66212534059945505</v>
+      </c>
+      <c r="K27" s="13">
+        <f t="shared" si="6"/>
+        <v>0.78249999999999997</v>
+      </c>
+      <c r="L27" s="13">
+        <f t="shared" si="6"/>
+        <v>0.85940246045694202</v>
+      </c>
+      <c r="M27" s="13">
+        <f t="shared" si="6"/>
+        <v>0.8896551724137931</v>
+      </c>
+      <c r="N27" s="13">
+        <f t="shared" si="6"/>
+        <v>0.69801762114537447</v>
+      </c>
+      <c r="O27" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="14">
+        <f>1-B27</f>
+        <v>0.62393162393162394</v>
+      </c>
+      <c r="C28" s="14">
+        <f t="shared" ref="C28:O28" si="7">1-C27</f>
+        <v>0.58695652173913038</v>
+      </c>
+      <c r="D28" s="14">
+        <f t="shared" si="7"/>
+        <v>0.49523809523809526</v>
+      </c>
+      <c r="E28" s="14">
+        <f t="shared" si="7"/>
+        <v>0.60264900662251653</v>
+      </c>
+      <c r="F28" s="14">
+        <f t="shared" si="7"/>
+        <v>0.53488372093023262</v>
+      </c>
+      <c r="G28" s="14">
+        <f t="shared" si="7"/>
+        <v>0.43548387096774188</v>
+      </c>
+      <c r="H28" s="14">
+        <f t="shared" si="7"/>
+        <v>0.43560606060606055</v>
+      </c>
+      <c r="I28" s="14">
+        <f t="shared" si="7"/>
+        <v>0.3911007025761124</v>
+      </c>
+      <c r="J28" s="14">
+        <f t="shared" si="7"/>
+        <v>0.33787465940054495</v>
+      </c>
+      <c r="K28" s="14">
+        <f t="shared" si="7"/>
+        <v>0.21750000000000003</v>
+      </c>
+      <c r="L28" s="14">
+        <f t="shared" si="7"/>
+        <v>0.14059753954305798</v>
+      </c>
+      <c r="M28" s="14">
+        <f t="shared" si="7"/>
+        <v>0.1103448275862069</v>
+      </c>
+      <c r="N28" s="14">
+        <f t="shared" si="7"/>
+        <v>0.30198237885462553</v>
+      </c>
+      <c r="O28" s="14">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -3142,49 +3852,49 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
-        <v>0</v>
-      </c>
-      <c r="B11" s="23">
+      <c r="A11" s="15">
+        <v>0</v>
+      </c>
+      <c r="B11" s="16">
         <v>39</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="16">
         <v>20</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="16">
         <v>16</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="16">
         <v>26</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="16">
         <v>23</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="16">
         <v>73</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="16">
         <v>86</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="16">
         <v>46</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="16">
         <v>15</v>
       </c>
-      <c r="K11" s="23">
-        <v>0</v>
-      </c>
-      <c r="L11" s="23">
-        <v>0</v>
-      </c>
-      <c r="M11" s="23">
-        <v>0</v>
-      </c>
-      <c r="N11" s="23">
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0</v>
+      </c>
+      <c r="N11" s="16">
         <v>344</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="17">
         <v>37609</v>
       </c>
     </row>
@@ -3715,7 +4425,7 @@
         <v>42</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" ref="D23:O23" si="0">SUM(D3:D22)</f>
+        <f t="shared" ref="D23:N23" si="0">SUM(D3:D22)</f>
         <v>38</v>
       </c>
       <c r="E23" s="1">
@@ -3769,7 +4479,7 @@
         <v>97</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" ref="D24:O24" si="1">SUM(D23,D2)</f>
+        <f t="shared" ref="D24:N24" si="1">SUM(D23,D2)</f>
         <v>106</v>
       </c>
       <c r="E24" s="1">
@@ -3835,7 +4545,7 @@
       <c r="D2" s="1">
         <v>60</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="14">
         <v>1</v>
       </c>
       <c r="F2" s="1">
@@ -3847,7 +4557,7 @@
       <c r="D3" s="1">
         <v>62</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="14">
         <v>0.5</v>
       </c>
       <c r="F3" s="1">
@@ -3859,7 +4569,7 @@
       <c r="D4" s="1">
         <v>65</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="14">
         <v>0.3</v>
       </c>
       <c r="F4" s="1">
